--- a/data/trans_orig/P41E_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P41E_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>6458</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3218</v>
+        <v>3143</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12448</v>
+        <v>11798</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02096402127571149</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01044610881552354</v>
+        <v>0.01020295230856731</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0404132526276853</v>
+        <v>0.0383004321253152</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -762,19 +762,19 @@
         <v>9394</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5565</v>
+        <v>5484</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14756</v>
+        <v>14774</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03927551152464395</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02326512825747774</v>
+        <v>0.02293003622342448</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06169587418920738</v>
+        <v>0.06176848093244558</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -783,19 +783,19 @@
         <v>15851</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10711</v>
+        <v>10520</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23435</v>
+        <v>22921</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02896777711089571</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0195743467539131</v>
+        <v>0.01922573998519268</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04282617904660098</v>
+        <v>0.04188636810741959</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>11187</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6434</v>
+        <v>6603</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17979</v>
+        <v>18378</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.03631695686140474</v>
+        <v>0.03631695686140475</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02088737984602724</v>
+        <v>0.02143711572041949</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05836770843808567</v>
+        <v>0.05966428967033223</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -833,19 +833,19 @@
         <v>6150</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2880</v>
+        <v>2802</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11260</v>
+        <v>11114</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.02571432625515642</v>
+        <v>0.02571432625515641</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01204205254576918</v>
+        <v>0.01171547979854153</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04707950880756909</v>
+        <v>0.04646672743865259</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>24</v>
@@ -854,19 +854,19 @@
         <v>17337</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>11325</v>
+        <v>11603</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>25781</v>
+        <v>26600</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03168266083036434</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02069656594482013</v>
+        <v>0.02120401960581744</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04711277556593808</v>
+        <v>0.0486111052457824</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>33232</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>24106</v>
+        <v>24116</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>44841</v>
+        <v>43730</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1078855252408612</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07825841340199495</v>
+        <v>0.07829197017049191</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1455725461831421</v>
+        <v>0.1419650955837571</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>36</v>
@@ -904,19 +904,19 @@
         <v>20848</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>14672</v>
+        <v>14912</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>28070</v>
+        <v>28257</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08716645787275558</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06134475400102499</v>
+        <v>0.06234704272371184</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1173618366210236</v>
+        <v>0.1181422397285535</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>77</v>
@@ -925,19 +925,19 @@
         <v>54080</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>43425</v>
+        <v>42386</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>67576</v>
+        <v>67768</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.09882944328943631</v>
+        <v>0.09882944328943633</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07935755745808837</v>
+        <v>0.07745799604938983</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1234929011380047</v>
+        <v>0.1238430192064282</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>94488</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>78713</v>
+        <v>80036</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>110342</v>
+        <v>112065</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.306748620637441</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2555370780681467</v>
+        <v>0.2598309898629056</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3582184130878442</v>
+        <v>0.3638107965668061</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>117</v>
@@ -975,19 +975,19 @@
         <v>78468</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>66579</v>
+        <v>67546</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>90969</v>
+        <v>91619</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3280720671042313</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2783664803868086</v>
+        <v>0.2824078912122746</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.380337150032532</v>
+        <v>0.3830564205018558</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>218</v>
@@ -996,19 +996,19 @@
         <v>172956</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>153796</v>
+        <v>153601</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>194927</v>
+        <v>191999</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3160688702055918</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2810558897258777</v>
+        <v>0.2806984516591493</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3562199583527538</v>
+        <v>0.350869273300922</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>162666</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>143342</v>
+        <v>144046</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>180173</v>
+        <v>179141</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5280848759845815</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4653520048581566</v>
+        <v>0.4676356762428034</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5849203888879092</v>
+        <v>0.5815693415026927</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>172</v>
@@ -1046,19 +1046,19 @@
         <v>124318</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>110518</v>
+        <v>110773</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>137609</v>
+        <v>137877</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5197716372432128</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4620737369471597</v>
+        <v>0.4631387195250649</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5753373532569128</v>
+        <v>0.5764607652647713</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>322</v>
@@ -1067,19 +1067,19 @@
         <v>286984</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>265091</v>
+        <v>265290</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>308970</v>
+        <v>308517</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.5244512485637119</v>
+        <v>0.5244512485637118</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.484441278076131</v>
+        <v>0.4848058666789656</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5646297631462662</v>
+        <v>0.5638017846515005</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>15203</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9628</v>
+        <v>9168</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23065</v>
+        <v>22596</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.06036257900267723</v>
+        <v>0.06036257900267726</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03822644609402178</v>
+        <v>0.03639918667019697</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09157500172880594</v>
+        <v>0.08971309617652462</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -1192,19 +1192,19 @@
         <v>9071</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5151</v>
+        <v>5124</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15631</v>
+        <v>15725</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.04310151424770914</v>
+        <v>0.04310151424770913</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02447285936533715</v>
+        <v>0.02434769994759168</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07426628434825473</v>
+        <v>0.0747129428493398</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>34</v>
@@ -1213,19 +1213,19 @@
         <v>24275</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17188</v>
+        <v>16618</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>33534</v>
+        <v>34222</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.05250486117278924</v>
+        <v>0.05250486117278923</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03717562381945455</v>
+        <v>0.03594370613059601</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07253176154635972</v>
+        <v>0.07402013140505936</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>11209</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6281</v>
+        <v>5967</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>18727</v>
+        <v>18589</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04450438752126457</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02493902326713023</v>
+        <v>0.02369086521418401</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07435388906885859</v>
+        <v>0.07380595872883403</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>7</v>
@@ -1263,19 +1263,19 @@
         <v>4707</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1970</v>
+        <v>1905</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8978</v>
+        <v>9380</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02236387657802256</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.009360497537231135</v>
+        <v>0.009052048589707186</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04265818646898305</v>
+        <v>0.04456645412787511</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>21</v>
@@ -1284,19 +1284,19 @@
         <v>15916</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>9407</v>
+        <v>9927</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>23305</v>
+        <v>24296</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.03442540977155943</v>
+        <v>0.03442540977155942</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02034600418558162</v>
+        <v>0.0214721020771038</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05040787515679485</v>
+        <v>0.05255145163696445</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>25147</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17413</v>
+        <v>17245</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>35453</v>
+        <v>36266</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.09984084720097879</v>
+        <v>0.09984084720097881</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06913716430416778</v>
+        <v>0.06846703936425802</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1407619469297395</v>
+        <v>0.143988302887181</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>29</v>
@@ -1334,19 +1334,19 @@
         <v>19089</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>12700</v>
+        <v>12888</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>28114</v>
+        <v>27314</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.09069687182409322</v>
+        <v>0.09069687182409321</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06034371481197778</v>
+        <v>0.06123640955508834</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1335785609561196</v>
+        <v>0.1297764129749285</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>59</v>
@@ -1355,19 +1355,19 @@
         <v>44235</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>34222</v>
+        <v>33301</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>57824</v>
+        <v>56194</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.09567825472044654</v>
+        <v>0.09567825472044653</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.074020095328688</v>
+        <v>0.07202744279898378</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1250695892864637</v>
+        <v>0.1215428423646155</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>88171</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>73958</v>
+        <v>73204</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>103825</v>
+        <v>103301</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3500715688684853</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.293637146813741</v>
+        <v>0.290644706307096</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4122196343715084</v>
+        <v>0.4101402061139043</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>105</v>
@@ -1405,19 +1405,19 @@
         <v>73974</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>62798</v>
+        <v>62878</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>86928</v>
+        <v>86205</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.35147457077869</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2983739379029753</v>
+        <v>0.2987551076821309</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4130203522378723</v>
+        <v>0.4095862788571348</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>193</v>
@@ -1426,19 +1426,19 @@
         <v>162146</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>141996</v>
+        <v>142275</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>180555</v>
+        <v>180706</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.35071025444679</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3071280843882802</v>
+        <v>0.3077309629390479</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3905277427632545</v>
+        <v>0.3908546629731502</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>112136</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>96555</v>
+        <v>95862</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>127257</v>
+        <v>129214</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4452206174065941</v>
+        <v>0.4452206174065942</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3833566987396079</v>
+        <v>0.3806063846763217</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.505256563391605</v>
+        <v>0.5130266326379063</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>141</v>
@@ -1476,19 +1476,19 @@
         <v>103627</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>90990</v>
+        <v>91762</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>116488</v>
+        <v>115595</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.4923631665714851</v>
+        <v>0.492363166571485</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4323208922848744</v>
+        <v>0.4359899130242476</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5534694565672614</v>
+        <v>0.5492306428187734</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>253</v>
@@ -1497,19 +1497,19 @@
         <v>215763</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>196073</v>
+        <v>195890</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>236397</v>
+        <v>237300</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4666812198884148</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4240928536642358</v>
+        <v>0.4236978473298236</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5113119765981156</v>
+        <v>0.5132631231273069</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>21524</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14668</v>
+        <v>14652</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>30050</v>
+        <v>30109</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.08578514647943881</v>
+        <v>0.0857851464794388</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05846059216346595</v>
+        <v>0.05839589548639301</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1197656187873627</v>
+        <v>0.1200005677596905</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -1622,19 +1622,19 @@
         <v>11897</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7308</v>
+        <v>7924</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17852</v>
+        <v>18139</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1325630517456654</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08142910811178793</v>
+        <v>0.0882935799632627</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1989109515553152</v>
+        <v>0.2021059549511998</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>51</v>
@@ -1643,19 +1643,19 @@
         <v>33421</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>24255</v>
+        <v>24609</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>42420</v>
+        <v>43363</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0981092954289359</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07120311349061285</v>
+        <v>0.07224110854700155</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1245255382911482</v>
+        <v>0.1272937323554259</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>12087</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7407</v>
+        <v>6957</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>18905</v>
+        <v>19103</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.04817318380415833</v>
+        <v>0.04817318380415832</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02952082318594559</v>
+        <v>0.02772585580557269</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0753472100448228</v>
+        <v>0.07613733458276097</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -1693,19 +1693,19 @@
         <v>4025</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1419</v>
+        <v>1791</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8668</v>
+        <v>8069</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04484638243452191</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01580524142887973</v>
+        <v>0.01995957399072494</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09657843494723278</v>
+        <v>0.08991087316741868</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>22</v>
@@ -1714,19 +1714,19 @@
         <v>16112</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>10298</v>
+        <v>9988</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>24532</v>
+        <v>24129</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04729670172631736</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03023022761544056</v>
+        <v>0.02932077951490564</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07201454003173985</v>
+        <v>0.07083153503254556</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>26398</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>18377</v>
+        <v>18432</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>38214</v>
+        <v>37854</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1052128672021709</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.07324425407448645</v>
+        <v>0.07346157684504553</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1523056910018573</v>
+        <v>0.1508711279907726</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>14</v>
@@ -1764,19 +1764,19 @@
         <v>8345</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>4814</v>
+        <v>4664</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>13711</v>
+        <v>13465</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.09298298610514867</v>
+        <v>0.0929829861051487</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.05364303539122879</v>
+        <v>0.0519672404721952</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1527718114930629</v>
+        <v>0.1500292494034912</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>45</v>
@@ -1785,19 +1785,19 @@
         <v>34743</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>24782</v>
+        <v>24809</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>45514</v>
+        <v>46653</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1019907717402956</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.07274789484152142</v>
+        <v>0.07282870897631767</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1336082710052068</v>
+        <v>0.1369518815446732</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>83222</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>68771</v>
+        <v>68493</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>99516</v>
+        <v>99388</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.3316885031039079</v>
+        <v>0.3316885031039078</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2740911057339845</v>
+        <v>0.2729850480255648</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3966306643008956</v>
+        <v>0.3961179007699265</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>50</v>
@@ -1835,19 +1835,19 @@
         <v>31695</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>24960</v>
+        <v>24198</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>39334</v>
+        <v>39103</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3531532575437281</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.278106595668621</v>
+        <v>0.2696188628814142</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4382683200833234</v>
+        <v>0.4356904141101565</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>133</v>
@@ -1856,19 +1856,19 @@
         <v>114917</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>98923</v>
+        <v>98458</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>133251</v>
+        <v>132899</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3373436265938371</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2903942014996403</v>
+        <v>0.2890270424415838</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3911639997593723</v>
+        <v>0.3901305086220855</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>107673</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>91989</v>
+        <v>92928</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>124050</v>
+        <v>125274</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.4291402994103243</v>
+        <v>0.4291402994103241</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3666316582009919</v>
+        <v>0.3703716939953878</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.494413761098947</v>
+        <v>0.4992907535155547</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>52</v>
@@ -1906,19 +1906,19 @@
         <v>33786</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>26812</v>
+        <v>26532</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>42116</v>
+        <v>41184</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.376454322170936</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2987394000450726</v>
+        <v>0.2956236672783434</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4692595671671886</v>
+        <v>0.4588786113558446</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>150</v>
@@ -1927,19 +1927,19 @@
         <v>141459</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>123545</v>
+        <v>122224</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>160849</v>
+        <v>161179</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.4152596045106141</v>
+        <v>0.415259604510614</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3626715759136702</v>
+        <v>0.3587943773578883</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4721800464718259</v>
+        <v>0.4731485525822363</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>36577</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>27568</v>
+        <v>27684</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>47633</v>
+        <v>47297</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.07031222401414768</v>
+        <v>0.07031222401414766</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05299478519689142</v>
+        <v>0.05321683101616818</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09156674419260477</v>
+        <v>0.0909211827027354</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>31</v>
@@ -2052,19 +2052,19 @@
         <v>18476</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12324</v>
+        <v>12291</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>26111</v>
+        <v>25770</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.04669628894428286</v>
+        <v>0.04669628894428287</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03114689811240127</v>
+        <v>0.03106343448265772</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06599294047284039</v>
+        <v>0.06512977880517797</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>83</v>
@@ -2073,19 +2073,19 @@
         <v>55053</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>44820</v>
+        <v>44207</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>67427</v>
+        <v>68485</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06010979537807709</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04893655567684122</v>
+        <v>0.04826808385917308</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07362012536168269</v>
+        <v>0.07477580716379616</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>28379</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>19921</v>
+        <v>20837</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>38483</v>
+        <v>38624</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.05455363815052426</v>
+        <v>0.05455363815052427</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03829546771479675</v>
+        <v>0.04005492338113742</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.07397661127875738</v>
+        <v>0.07424830217078708</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>16</v>
@@ -2123,19 +2123,19 @@
         <v>11264</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>6326</v>
+        <v>6932</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>18445</v>
+        <v>19979</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02846742549210659</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01598720159690973</v>
+        <v>0.01752000015920751</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.0466183670717505</v>
+        <v>0.05049411339326534</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>53</v>
@@ -2144,19 +2144,19 @@
         <v>39643</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>30059</v>
+        <v>30638</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>51418</v>
+        <v>51444</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.04328401354131369</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03282041896797916</v>
+        <v>0.03345255414897598</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05614050371705406</v>
+        <v>0.056169335377241</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>51483</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>40096</v>
+        <v>39430</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>66139</v>
+        <v>67361</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.09896825112565766</v>
+        <v>0.09896825112565764</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07707846161032643</v>
+        <v>0.07579704284646284</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1271414659196503</v>
+        <v>0.1294900994736177</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>52</v>
@@ -2194,19 +2194,19 @@
         <v>32507</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>23826</v>
+        <v>23677</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>41665</v>
+        <v>41801</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.08215718344581807</v>
+        <v>0.08215718344581806</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06021802218203056</v>
+        <v>0.05984137884169369</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1053027071263739</v>
+        <v>0.1056462279883285</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>112</v>
@@ -2215,19 +2215,19 @@
         <v>83991</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>69360</v>
+        <v>69649</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>100998</v>
+        <v>102157</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.09170562452237838</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07573140269175134</v>
+        <v>0.07604655871964978</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1102747551964007</v>
+        <v>0.1115405198716137</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>150182</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>127712</v>
+        <v>130428</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>170067</v>
+        <v>171545</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.2886998297175156</v>
+        <v>0.2886998297175155</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2455037090878635</v>
+        <v>0.2507247362515948</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3269247212418956</v>
+        <v>0.3297653735752756</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>185</v>
@@ -2265,19 +2265,19 @@
         <v>123197</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>108162</v>
+        <v>106895</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>140067</v>
+        <v>139281</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3113631625205829</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2733638655734144</v>
+        <v>0.2701622986562026</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3540002185267236</v>
+        <v>0.3520134267165599</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>341</v>
@@ -2286,19 +2286,19 @@
         <v>273379</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>250702</v>
+        <v>247753</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>304341</v>
+        <v>301203</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2984907202706431</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2737302895249963</v>
+        <v>0.2705102821682315</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3322968076758369</v>
+        <v>0.328870332689006</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>253581</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>231131</v>
+        <v>231431</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>279538</v>
+        <v>275858</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.4874660569921548</v>
+        <v>0.4874660569921547</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4443109558763876</v>
+        <v>0.4448875912053782</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5373638774887608</v>
+        <v>0.5302896332983249</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>291</v>
@@ -2336,19 +2336,19 @@
         <v>210226</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>191743</v>
+        <v>193378</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>227645</v>
+        <v>227933</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.5313159395972095</v>
+        <v>0.5313159395972096</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4846043748307037</v>
+        <v>0.488734627323161</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5753408795481125</v>
+        <v>0.5760688206823461</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>535</v>
@@ -2357,19 +2357,19 @@
         <v>463807</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>435806</v>
+        <v>434664</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>494570</v>
+        <v>492719</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5064098462875878</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4758377691069208</v>
+        <v>0.4745907305768803</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5399987262054303</v>
+        <v>0.5379780665204631</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>29002</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>20526</v>
+        <v>21517</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>38327</v>
+        <v>40030</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1139559462303883</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.08064883089734064</v>
+        <v>0.08454567675663438</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1505919695788279</v>
+        <v>0.1572842531333139</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>93</v>
@@ -2482,19 +2482,19 @@
         <v>49516</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>40309</v>
+        <v>41038</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>60029</v>
+        <v>60547</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.1315687996608178</v>
+        <v>0.1315687996608177</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1071053894445144</v>
+        <v>0.1090427458735239</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1595012158520288</v>
+        <v>0.1608775107157279</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>135</v>
@@ -2503,19 +2503,19 @@
         <v>78519</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>66651</v>
+        <v>65686</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>92415</v>
+        <v>92490</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1244632844746288</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1056521422755698</v>
+        <v>0.1041223175904373</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1464913504018709</v>
+        <v>0.1466091904057147</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>8333</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4470</v>
+        <v>4527</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>14247</v>
+        <v>14496</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0327402593479146</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0175623650707467</v>
+        <v>0.01778910184263203</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05597848269749057</v>
+        <v>0.05695602057723151</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>27</v>
@@ -2553,19 +2553,19 @@
         <v>16677</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>11035</v>
+        <v>11827</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>23948</v>
+        <v>24675</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.04431170088338998</v>
+        <v>0.04431170088338997</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02932114902499932</v>
+        <v>0.03142453128804643</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06363074992212026</v>
+        <v>0.06556480462920568</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>39</v>
@@ -2574,19 +2574,19 @@
         <v>25009</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>18175</v>
+        <v>17878</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>34102</v>
+        <v>34207</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03964345936981638</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02880980654117918</v>
+        <v>0.02833892654095475</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05405709120702382</v>
+        <v>0.05422364748204665</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>20366</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>13428</v>
+        <v>13693</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>28630</v>
+        <v>30560</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.08001984923502316</v>
+        <v>0.08001984923502317</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.05275939705961843</v>
+        <v>0.0538033852658779</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1124909297844852</v>
+        <v>0.1200757634055182</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>82</v>
@@ -2624,19 +2624,19 @@
         <v>46466</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>38251</v>
+        <v>36646</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>57279</v>
+        <v>56532</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1234645095546486</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.101635192251393</v>
+        <v>0.09737171557962579</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1521946847875882</v>
+        <v>0.1502103937016236</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>106</v>
@@ -2645,19 +2645,19 @@
         <v>66832</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>55243</v>
+        <v>54080</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>80287</v>
+        <v>80448</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1059377246484284</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.08756801411093568</v>
+        <v>0.08572518604531774</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1272665933672099</v>
+        <v>0.1275219020650742</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>92450</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>75653</v>
+        <v>75975</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>109187</v>
+        <v>108768</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3632515799873076</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2972527477699936</v>
+        <v>0.2985204116485504</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4290161098931335</v>
+        <v>0.427369199648262</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>167</v>
@@ -2695,19 +2695,19 @@
         <v>112536</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>98188</v>
+        <v>96894</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>128561</v>
+        <v>127762</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.2990185952361115</v>
+        <v>0.2990185952361114</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2608939371198227</v>
+        <v>0.2574548397278416</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3415990643989442</v>
+        <v>0.3394740135668394</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>256</v>
@@ -2716,19 +2716,19 @@
         <v>204986</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>183206</v>
+        <v>184454</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>229055</v>
+        <v>226690</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.3249319686941191</v>
+        <v>0.3249319686941189</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2904083685986578</v>
+        <v>0.2923860924671331</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3630847024213628</v>
+        <v>0.3593356451865564</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>104356</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>88276</v>
+        <v>87434</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>123593</v>
+        <v>123730</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4100323651993664</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.346853969961623</v>
+        <v>0.3435421652850305</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4856202714488203</v>
+        <v>0.4861574047644324</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>219</v>
@@ -2766,19 +2766,19 @@
         <v>151157</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>134582</v>
+        <v>135922</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>167185</v>
+        <v>166645</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4016363946650321</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.357596700066279</v>
+        <v>0.3611552968862612</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4442259061868277</v>
+        <v>0.4427904044458476</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>309</v>
@@ -2787,19 +2787,19 @@
         <v>255512</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>233908</v>
+        <v>232995</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>280607</v>
+        <v>279685</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4050235628130073</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3707769749325735</v>
+        <v>0.3693310235816692</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4448023191957292</v>
+        <v>0.4433402300133468</v>
       </c>
     </row>
     <row r="33">
@@ -2891,19 +2891,19 @@
         <v>4069</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>622</v>
+        <v>689</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>10960</v>
+        <v>12447</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.08972838434281712</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01372436863151283</v>
+        <v>0.01519893198512158</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.241676623444345</v>
+        <v>0.274471309840106</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>59</v>
@@ -2912,19 +2912,19 @@
         <v>35540</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>27998</v>
+        <v>27723</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>46368</v>
+        <v>45871</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1271267562370987</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1001496512468857</v>
+        <v>0.09916425082766955</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1658579977941858</v>
+        <v>0.1640829095743016</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>62</v>
@@ -2933,19 +2933,19 @@
         <v>39609</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>31145</v>
+        <v>30336</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>50476</v>
+        <v>50756</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1219069647244611</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.09585613707321916</v>
+        <v>0.09336732183175993</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.155352486843882</v>
+        <v>0.1562154525436149</v>
       </c>
     </row>
     <row r="35">
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>5469</v>
+        <v>5383</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.02525149106886306</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1206032699509448</v>
+        <v>0.1186951880602247</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>35</v>
@@ -2983,19 +2983,19 @@
         <v>23921</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>16898</v>
+        <v>16475</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>32996</v>
+        <v>33062</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.08556644073023002</v>
+        <v>0.08556644073023004</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.06044581517813285</v>
+        <v>0.05893061885481513</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.118026850158373</v>
+        <v>0.1182618861735611</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>36</v>
@@ -3004,19 +3004,19 @@
         <v>25066</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>17287</v>
+        <v>17896</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>34799</v>
+        <v>35236</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.07714812072374583</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.05320472102684402</v>
+        <v>0.05508092059209645</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1071018192643165</v>
+        <v>0.1084482278447603</v>
       </c>
     </row>
     <row r="36">
@@ -3033,19 +3033,19 @@
         <v>10337</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>4526</v>
+        <v>4407</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>17884</v>
+        <v>19603</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2279528271873159</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.09980889571241497</v>
+        <v>0.09718316341750174</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3943664859093243</v>
+        <v>0.4322678499264072</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>78</v>
@@ -3054,19 +3054,19 @@
         <v>51334</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>40759</v>
+        <v>41056</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>64462</v>
+        <v>64050</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1836217426179233</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1457947870790787</v>
+        <v>0.1468593438472954</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2305820425580258</v>
+        <v>0.2291076533256202</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>86</v>
@@ -3075,19 +3075,19 @@
         <v>61671</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>50080</v>
+        <v>49565</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>76843</v>
+        <v>76018</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1898091515146383</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1541355913880517</v>
+        <v>0.1525493424998703</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.236505862338576</v>
+        <v>0.2339660445087811</v>
       </c>
     </row>
     <row r="37">
@@ -3104,19 +3104,19 @@
         <v>7761</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2984</v>
+        <v>2911</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>15796</v>
+        <v>15935</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1711492038128648</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.06579260584091037</v>
+        <v>0.0641868366029157</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3483185569326697</v>
+        <v>0.3513898405757672</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>114</v>
@@ -3125,19 +3125,19 @@
         <v>72165</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>60567</v>
+        <v>60493</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>86479</v>
+        <v>86138</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.258135210828439</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2166499268303909</v>
+        <v>0.2163834286711754</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.309339177640144</v>
+        <v>0.3081172141801226</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>120</v>
@@ -3146,19 +3146,19 @@
         <v>79926</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>66025</v>
+        <v>66601</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>95000</v>
+        <v>95308</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.2459943394979533</v>
+        <v>0.2459943394979532</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2032086151721407</v>
+        <v>0.2049838213048908</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2923888772439222</v>
+        <v>0.2933366450249579</v>
       </c>
     </row>
     <row r="38">
@@ -3175,19 +3175,19 @@
         <v>22036</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>14222</v>
+        <v>12677</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>31631</v>
+        <v>31415</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.4859180935881393</v>
+        <v>0.4859180935881392</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3136208816418478</v>
+        <v>0.2795449772958787</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.697497250223503</v>
+        <v>0.6927369476552567</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>131</v>
@@ -3196,19 +3196,19 @@
         <v>96603</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>81186</v>
+        <v>82382</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>111064</v>
+        <v>112602</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.345549849586309</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.290404141479274</v>
+        <v>0.2946818449757553</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3972800540401981</v>
+        <v>0.4027805203607531</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>142</v>
@@ -3217,19 +3217,19 @@
         <v>118638</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>102064</v>
+        <v>101934</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>137686</v>
+        <v>136569</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.3651414235392016</v>
+        <v>0.3651414235392015</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.3141302930720969</v>
+        <v>0.3137293758987492</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4237666203456529</v>
+        <v>0.4203266759812563</v>
       </c>
     </row>
     <row r="39">
@@ -3321,19 +3321,19 @@
         <v>112833</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>97186</v>
+        <v>95104</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>132105</v>
+        <v>130761</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.06918617477680059</v>
+        <v>0.06918617477680057</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.05959176510762255</v>
+        <v>0.05831554573760458</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.08100352936141669</v>
+        <v>0.08017951908401678</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>234</v>
@@ -3342,19 +3342,19 @@
         <v>133895</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>117895</v>
+        <v>117589</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>152680</v>
+        <v>153399</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.0841588774419159</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.07410242437033657</v>
+        <v>0.0739099652463682</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.09596605626875541</v>
+        <v>0.09641809274499474</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>391</v>
@@ -3363,19 +3363,19 @@
         <v>246728</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>222499</v>
+        <v>223218</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>273386</v>
+        <v>271647</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.07657986712779825</v>
+        <v>0.07657986712779827</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.06905967567251517</v>
+        <v>0.0692829206161515</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.08485422015758863</v>
+        <v>0.08431430213952787</v>
       </c>
     </row>
     <row r="41">
@@ -3392,19 +3392,19 @@
         <v>72339</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>59146</v>
+        <v>59027</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>88953</v>
+        <v>88045</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.04435664107571535</v>
+        <v>0.04435664107571537</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.0362669301639541</v>
+        <v>0.03619398613383919</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.05454396099426954</v>
+        <v>0.05398692170626065</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>100</v>
@@ -3413,19 +3413,19 @@
         <v>66744</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>55133</v>
+        <v>54467</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>81314</v>
+        <v>81441</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.04195135535745328</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.03465379251691875</v>
+        <v>0.03423485033863428</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.05110958680069805</v>
+        <v>0.05118920812522309</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>195</v>
@@ -3434,19 +3434,19 @@
         <v>139083</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>119278</v>
+        <v>120396</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>159041</v>
+        <v>158934</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.04316888339329555</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.03702188576794642</v>
+        <v>0.03736872563515386</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.04936352646051093</v>
+        <v>0.04933022134470439</v>
       </c>
     </row>
     <row r="42">
@@ -3463,19 +3463,19 @@
         <v>166963</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>146834</v>
+        <v>142768</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>193975</v>
+        <v>190384</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1023776057191684</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.0900345705565597</v>
+        <v>0.08754163541518227</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1189402519403831</v>
+        <v>0.1167384728132703</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>291</v>
@@ -3484,19 +3484,19 @@
         <v>178589</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>159750</v>
+        <v>158967</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>199726</v>
+        <v>198530</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1122510956158519</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1004095069335249</v>
+        <v>0.09991762031716458</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1255363401103192</v>
+        <v>0.1247847533047059</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>485</v>
@@ -3505,19 +3505,19 @@
         <v>345552</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>315535</v>
+        <v>314656</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>377573</v>
+        <v>380514</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1072532483041806</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.09793649356651572</v>
+        <v>0.09766353734538064</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1171916999141724</v>
+        <v>0.1181047558863029</v>
       </c>
     </row>
     <row r="43">
@@ -3534,19 +3534,19 @@
         <v>516274</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>476730</v>
+        <v>475879</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>554120</v>
+        <v>554209</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.3165662772285434</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2923184358509521</v>
+        <v>0.2917969647425666</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.3397719786743746</v>
+        <v>0.3398269298829055</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>738</v>
@@ -3555,19 +3555,19 @@
         <v>492035</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>459613</v>
+        <v>460332</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>523865</v>
+        <v>523324</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.3092655545271034</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2888869569996064</v>
+        <v>0.289338464382494</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.3292719235995953</v>
+        <v>0.3289318143958351</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>1261</v>
@@ -3576,19 +3576,19 @@
         <v>1008310</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>956200</v>
+        <v>959929</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>1057224</v>
+        <v>1063115</v>
       </c>
       <c r="U43" s="6" t="n">
-        <v>0.3129610966007227</v>
+        <v>0.3129610966007229</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2967872185211103</v>
+        <v>0.297944602666643</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.3281432271543878</v>
+        <v>0.3299715569227081</v>
       </c>
     </row>
     <row r="44">
@@ -3605,19 +3605,19 @@
         <v>762447</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>724126</v>
+        <v>722357</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>807597</v>
+        <v>804696</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.4675133011997723</v>
+        <v>0.4675133011997724</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.4440155589564024</v>
+        <v>0.4429309497926894</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.4951979889588836</v>
+        <v>0.4934192229318539</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>1006</v>
@@ -3626,19 +3626,19 @@
         <v>719717</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>686681</v>
+        <v>686374</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>753746</v>
+        <v>751616</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.4523731170576754</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.431608605492671</v>
+        <v>0.4314157181729289</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.4737623199494885</v>
+        <v>0.4724233215615999</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1711</v>
@@ -3647,19 +3647,19 @@
         <v>1482164</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1427840</v>
+        <v>1418677</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1529715</v>
+        <v>1531903</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.4600369045740029</v>
+        <v>0.4600369045740028</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.4431758373191314</v>
+        <v>0.4403316349436356</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.4747960046665902</v>
+        <v>0.4754749597488935</v>
       </c>
     </row>
     <row r="45">
